--- a/呉俊鋒_週報_2025年4月分.xlsx
+++ b/呉俊鋒_週報_2025年4月分.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222322E0-1165-47ED-ACB6-B00C97D5D6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC25714-DA9B-4583-96A5-BC7007C3A513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -440,6 +440,7 @@
 ・4/17
 　PythonのフレームワークDjangoを勉強した。
 　　・CookieとSession
+　　・今まで開発したものをGitHubにアップロードした。
 ・4/18
 　PythonのフレームワークDjangoを勉強した。
 　　・------------</t>
@@ -565,6 +566,19 @@
     </rPh>
     <rPh sb="395" eb="398">
       <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="496" eb="497">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="499" eb="501">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4606,7 +4620,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K8"/>
+      <selection activeCell="C15" sqref="C15:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4744,7 +4758,9 @@
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>

--- a/呉俊鋒_週報_2025年4月分.xlsx
+++ b/呉俊鋒_週報_2025年4月分.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC25714-DA9B-4583-96A5-BC7007C3A513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5778185-99CA-4793-875F-85136351398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -411,10 +411,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>今週の進捗状況：Pythonのdjangoフレームワーク勉強(16/62)
-来週の進捗予定：Pythonのdjangoフレームワーク勉強(16/62)</t>
+    <t>今週の進捗状況：Pythonのdjangoフレームワーク勉強(30/62)
+来週の進捗予定：Pythonのdjangoフレームワーク勉強(40/62)</t>
     <rPh sb="28" eb="30">
       <t>ベンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・4/17
+　■どのGit管理ソフトを使っていいですか？
+・4/18
+　■発想：DjangoのミドルウェアとSpringMVC似てる？</t>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・4/17
+　■どのGit管理ソフトを使っていいですか？
+　　解決策：
+　　　・Git管理ソフトSourceTreeを使ってみたが、操作だけじゃなくて、表示文字の意味も理解にくいです。
+　　　・Git管理ソフトTortoiseGitを使ってみた、操作方法はTortoiseSVNと同じので、これを一応使いましょう。
+・4/18
+　■発想：DjangoのミドルウェアとSpringMVC似てる？
+　　・調査結果：全然違う</t>
+    <rPh sb="59" eb="60">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>モンジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>ゼンゼン</t>
+    </rPh>
+    <rPh sb="207" eb="208">
+      <t>チガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -443,7 +518,8 @@
 　　・今まで開発したものをGitHubにアップロードした。
 ・4/18
 　PythonのフレームワークDjangoを勉強した。
-　　・------------</t>
+　　・ミドルウェア
+　　・JavaのWeb系フレームワークSpringMVC復習（必要がある）</t>
     <rPh sb="7" eb="8">
       <t>ギ</t>
     </rPh>
@@ -573,12 +649,11 @@
     <rPh sb="499" eb="501">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特になし</t>
-    <rPh sb="0" eb="1">
-      <t>トク</t>
+    <rPh sb="578" eb="579">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="598" eb="600">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4620,7 +4695,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:K20"/>
+      <selection activeCell="C3" sqref="C3:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4680,7 +4755,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
@@ -4742,7 +4817,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:13" ht="364.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" ht="405.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="26"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
@@ -4759,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -4834,7 +4909,9 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>

--- a/呉俊鋒_週報_2025年4月分.xlsx
+++ b/呉俊鋒_週報_2025年4月分.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pro\GitHub\studyNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5778185-99CA-4793-875F-85136351398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA604F13-6D82-4EBB-8815-76BEBB1FB480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025年4月1日の週" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -654,6 +654,127 @@
     </rPh>
     <rPh sb="598" eb="600">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・4/22
+　■入力した内容をtxtファイルに格納、txtファイルに格納した内容がターミナルに表示させたい機能実装したいが、
+　　ロジックが正しいが、なぜtxtファイルに格納した内容がターミナルに表示させないか？</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>タダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・4/22
+　■入力した内容をtxtファイルに格納、txtファイルに格納した内容がターミナルに表示させたい機能実装したいが、
+　　ロジックが正しいが、なぜtxtファイルに格納した内容がターミナルに表示させないか？
+　　解決策：txtファイルの変数のスコープはグローバル場合、ダメです。スコープは関数なら大丈夫です。</t>
+    <rPh sb="109" eb="111">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="151" eb="154">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・4/21
+　PythonのフレームワークDjangoを勉強した。
+　　・テンプレート継承
+　C++復習した。
+　　・フレンド関数
+・4/22
+　C++復習した。
+　　・ストレージクラス
+　　・ファイルの読み込み
+　　・コンテナ
+・4/23
+　PythonとDjangoを利用して、2D図を3Dグラフに変換するのを調査した。
+・4/24
+　山口県メディモニー様に出張した。
+・4/25
+　メディモニー様の依頼を調査した。</t>
+    <rPh sb="50" eb="52">
+      <t>フクシュウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="170" eb="173">
+      <t>ヤマグチケン</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シュッチョウ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今週の進捗状況：Pythonのdjangoフレームワーク勉強(31/62)
+来週の進捗予定：メディモニー様の依頼を調査する</t>
+    <rPh sb="28" eb="30">
+      <t>ベンキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4694,8 +4815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF5F471-DED5-469D-A64B-64ABF9552A4B}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5003,7 +5124,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AE0C2F-90DA-4FFB-A636-C39C45458EAD}">
   <dimension ref="B1:M20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5045,7 +5168,9 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
@@ -5059,7 +5184,9 @@
       <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -5136,7 +5263,9 @@
       <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -5210,7 +5339,9 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
